--- a/data/cuadros/Intermediación Financiera, Actividades Inmobiliarias, Empresariales y de Alquiler/bh.xlsx
+++ b/data/cuadros/Intermediación Financiera, Actividades Inmobiliarias, Empresariales y de Alquiler/bh.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>Participación del empleo del sector en la región</t>
   </si>
@@ -154,13 +154,58 @@
   </si>
   <si>
     <t>1.6. Participación del PIB del sector Intermediación Financiera, Actividades Inmobiliarias, Empresariales y de Alquiler en el PIB regional y participación del sector en el empleo regional, 2014. Por región de trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Participación del empleo del sector en la región</t>
+  </si>
+  <si>
+    <t>Región de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 </t>
+  </si>
+  <si>
+    <t>1.6. Participación del PIB del sector Intermediación Financiera, Actividades Inmobiliarias, Empresariales y de Alquiler en el PIB regionaly participación del sector en el empleo regional, 2014.Por región de trabajo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="196">
+  <fonts count="391">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -946,8 +991,789 @@
       <name val="Times New Roman"/>
       <b/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="65">
+  <fills count="128">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,8 +2095,323 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="146">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -2323,11 +3464,1056 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2906,6 +5092,586 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="195" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="65" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="66" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="67" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="68" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="69" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="70" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="71" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="72" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="73" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="74" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="75" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="76" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="77" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="78" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="79" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="80" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="81" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="82" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="83" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="84" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="85" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="86" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="87" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="88" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="89" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="90" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="91" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="92" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="93" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="94" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="95" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="96" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="97" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="98" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="99" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="100" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="101" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="102" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="103" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="104" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="105" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="106" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="107" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="108" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="109" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="110" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="111" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="112" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="113" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="114" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="115" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="116" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="117" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="118" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="119" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="120" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="121" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="122" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="123" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="124" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="125" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="126" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="127" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2922,182 +5688,184 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="145" t="s">
-        <v>46</v>
+      <c r="A1" s="290" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="141" t="s">
-        <v>2</v>
+      <c r="A2" s="286" t="s">
+        <v>48</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143" t="s">
+      <c r="B2" s="287" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="288" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85" t="s">
-        <v>18</v>
+      <c r="B3" s="230" t="s">
+        <v>49</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>33</v>
+      <c r="C3" s="231" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="232" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>19</v>
+      <c r="B4" s="233" t="s">
+        <v>50</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>20</v>
+      <c r="C4" s="234" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>20</v>
+      <c r="B5" s="236" t="s">
+        <v>51</v>
       </c>
-      <c r="C5" s="92" t="s">
-        <v>34</v>
+      <c r="C5" s="237" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="94" t="s">
-        <v>21</v>
+      <c r="B6" s="239" t="s">
+        <v>52</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>18</v>
+      <c r="C6" s="240" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="97" t="s">
-        <v>22</v>
+      <c r="B7" s="242" t="s">
+        <v>53</v>
       </c>
-      <c r="C7" s="98" t="s">
-        <v>35</v>
+      <c r="C7" s="243" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="100" t="s">
-        <v>23</v>
+      <c r="B8" s="245" t="s">
+        <v>54</v>
       </c>
-      <c r="C8" s="101" t="s">
-        <v>36</v>
+      <c r="C8" s="246" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="103" t="s">
-        <v>24</v>
+      <c r="B9" s="248" t="s">
+        <v>55</v>
       </c>
-      <c r="C9" s="104" t="s">
-        <v>37</v>
+      <c r="C9" s="249" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="106" t="s">
-        <v>25</v>
+      <c r="B10" s="251" t="s">
+        <v>56</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>38</v>
+      <c r="C10" s="252" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="109" t="s">
-        <v>26</v>
+      <c r="B11" s="254" t="s">
+        <v>49</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>39</v>
+      <c r="C11" s="255" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="112" t="s">
-        <v>27</v>
+      <c r="B12" s="257" t="s">
+        <v>54</v>
       </c>
-      <c r="C12" s="113" t="s">
-        <v>40</v>
+      <c r="C12" s="258" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="115" t="s">
-        <v>28</v>
+      <c r="B13" s="260" t="s">
+        <v>57</v>
       </c>
-      <c r="C13" s="116" t="s">
-        <v>41</v>
+      <c r="C13" s="261" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="262" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="118" t="s">
-        <v>29</v>
+      <c r="B14" s="263" t="s">
+        <v>56</v>
       </c>
-      <c r="C14" s="119" t="s">
-        <v>42</v>
+      <c r="C14" s="264" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="121" t="s">
-        <v>30</v>
+      <c r="B15" s="266" t="s">
+        <v>58</v>
       </c>
-      <c r="C15" s="122" t="s">
-        <v>43</v>
+      <c r="C15" s="267" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="136" t="s">
-        <v>31</v>
+      <c r="B16" s="281" t="s">
+        <v>50</v>
       </c>
-      <c r="C16" s="137" t="s">
-        <v>44</v>
+      <c r="C16" s="282" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="139" t="s">
-        <v>32</v>
+      <c r="B17" s="284" t="s">
+        <v>59</v>
       </c>
-      <c r="C17" s="140" t="s">
-        <v>45</v>
+      <c r="C17" s="285" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/cuadros/Intermediación Financiera, Actividades Inmobiliarias, Empresariales y de Alquiler/bh.xlsx
+++ b/data/cuadros/Intermediación Financiera, Actividades Inmobiliarias, Empresariales y de Alquiler/bh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="123">
   <si>
     <t>Participación del empleo del sector en la región</t>
   </si>
@@ -381,12 +381,15 @@
   <si>
     <t xml:space="preserve">6,1 </t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1171">
+  <fonts count="1370">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -5077,8 +5080,809 @@
       <name val="Times New Roman"/>
       <b/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="380">
+  <fills count="443">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6975,8 +7779,323 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="871">
+  <borders count="1018">
     <border>
       <left/>
       <right/>
@@ -13254,11 +14373,1070 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="871">
+  <cellXfs count="1018">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -16737,6 +18915,594 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1170" fillId="0" borderId="870" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1171" fillId="0" borderId="871" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1172" fillId="0" borderId="872" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1173" fillId="0" borderId="873" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1174" fillId="0" borderId="874" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1175" fillId="0" borderId="875" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1176" fillId="0" borderId="876" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1177" fillId="0" borderId="877" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1178" fillId="0" borderId="878" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1179" fillId="0" borderId="879" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1180" fillId="0" borderId="880" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1181" fillId="0" borderId="881" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1182" fillId="0" borderId="882" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1183" fillId="0" borderId="883" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1184" fillId="0" borderId="884" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1185" fillId="0" borderId="885" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1186" fillId="0" borderId="886" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1187" fillId="0" borderId="887" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1188" fillId="0" borderId="888" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1189" fillId="0" borderId="889" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1190" fillId="0" borderId="890" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1191" fillId="0" borderId="891" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1192" fillId="0" borderId="892" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1193" fillId="0" borderId="893" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1194" fillId="0" borderId="894" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1195" fillId="0" borderId="895" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1196" fillId="0" borderId="896" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1197" fillId="0" borderId="897" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1198" fillId="0" borderId="898" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1199" fillId="0" borderId="899" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1200" fillId="0" borderId="900" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1201" fillId="0" borderId="901" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1202" fillId="0" borderId="902" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1204" fillId="0" borderId="903" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1206" fillId="0" borderId="904" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1208" fillId="0" borderId="905" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1210" fillId="0" borderId="906" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1212" fillId="0" borderId="907" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1214" fillId="0" borderId="908" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1216" fillId="0" borderId="909" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1218" fillId="0" borderId="910" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1220" fillId="0" borderId="911" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1222" fillId="0" borderId="912" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1224" fillId="0" borderId="913" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1226" fillId="0" borderId="914" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1228" fillId="0" borderId="915" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1230" fillId="0" borderId="916" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1232" fillId="0" borderId="917" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1234" fillId="0" borderId="918" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1236" fillId="0" borderId="919" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1238" fillId="0" borderId="920" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1240" fillId="0" borderId="921" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1242" fillId="0" borderId="922" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1244" fillId="0" borderId="923" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1246" fillId="0" borderId="924" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1248" fillId="0" borderId="925" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1250" fillId="0" borderId="926" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1252" fillId="0" borderId="927" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1254" fillId="0" borderId="928" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1256" fillId="0" borderId="929" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1258" fillId="0" borderId="930" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1260" fillId="0" borderId="931" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1262" fillId="0" borderId="932" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1264" fillId="0" borderId="933" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1266" fillId="0" borderId="934" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1268" fillId="0" borderId="935" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1270" fillId="0" borderId="936" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1272" fillId="0" borderId="937" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1274" fillId="0" borderId="938" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1276" fillId="0" borderId="939" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1278" fillId="0" borderId="940" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1280" fillId="0" borderId="941" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1282" fillId="0" borderId="942" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1284" fillId="0" borderId="943" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1286" fillId="0" borderId="944" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1288" fillId="0" borderId="945" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1290" fillId="0" borderId="946" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1292" fillId="0" borderId="947" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1294" fillId="0" borderId="948" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1296" fillId="0" borderId="949" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1298" fillId="0" borderId="950" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1299" fillId="380" borderId="951" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1300" fillId="381" borderId="952" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1301" fillId="382" borderId="953" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1302" fillId="383" borderId="954" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1303" fillId="384" borderId="955" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1304" fillId="385" borderId="956" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1305" fillId="386" borderId="957" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1306" fillId="387" borderId="958" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1307" fillId="388" borderId="959" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1308" fillId="389" borderId="960" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1309" fillId="390" borderId="961" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1310" fillId="391" borderId="962" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1311" fillId="392" borderId="963" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1312" fillId="393" borderId="964" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1313" fillId="394" borderId="965" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1314" fillId="395" borderId="966" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1315" fillId="396" borderId="967" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1316" fillId="397" borderId="968" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1317" fillId="398" borderId="969" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1318" fillId="399" borderId="970" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1319" fillId="400" borderId="971" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1320" fillId="401" borderId="972" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1321" fillId="402" borderId="973" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1322" fillId="403" borderId="974" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1323" fillId="404" borderId="975" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1324" fillId="405" borderId="976" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1325" fillId="406" borderId="977" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1326" fillId="407" borderId="978" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1327" fillId="408" borderId="979" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1328" fillId="409" borderId="980" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1329" fillId="410" borderId="981" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1330" fillId="411" borderId="982" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1331" fillId="412" borderId="983" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1332" fillId="413" borderId="984" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1333" fillId="414" borderId="985" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1334" fillId="415" borderId="986" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1335" fillId="416" borderId="987" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1336" fillId="417" borderId="988" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1337" fillId="418" borderId="989" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1338" fillId="419" borderId="990" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1339" fillId="420" borderId="991" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1340" fillId="421" borderId="992" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1341" fillId="422" borderId="993" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1342" fillId="423" borderId="994" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1343" fillId="424" borderId="995" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1344" fillId="425" borderId="996" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1345" fillId="426" borderId="997" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1346" fillId="427" borderId="998" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1347" fillId="428" borderId="999" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1348" fillId="429" borderId="1000" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1349" fillId="430" borderId="1001" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1350" fillId="431" borderId="1002" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1351" fillId="432" borderId="1003" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1352" fillId="433" borderId="1004" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1353" fillId="434" borderId="1005" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1354" fillId="435" borderId="1006" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1355" fillId="436" borderId="1007" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1356" fillId="437" borderId="1008" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1357" fillId="438" borderId="1009" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1358" fillId="439" borderId="1010" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1359" fillId="440" borderId="1011" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1360" fillId="441" borderId="1012" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1361" fillId="442" borderId="1013" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1363" fillId="0" borderId="1014" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1365" fillId="0" borderId="1015" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1367" fillId="0" borderId="1016" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1369" fillId="0" borderId="1017" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -16753,183 +19519,183 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="870" t="s">
+      <c r="A1" s="1017" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="866" t="s">
+      <c r="A2" s="1011" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="867" t="s">
+      <c r="B2" s="1012" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="868" t="s">
+      <c r="C2" s="1013" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="809" t="s">
+      <c r="A3" s="954" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="810" t="s">
+      <c r="B3" s="955" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="811" t="s">
+      <c r="C3" s="956" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="812" t="s">
+      <c r="A4" s="957" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="813" t="s">
+      <c r="B4" s="958" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="814" t="s">
+      <c r="C4" s="959" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="815" t="s">
+      <c r="A5" s="960" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="816" t="s">
+      <c r="B5" s="961" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="817" t="s">
+      <c r="C5" s="962" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="818" t="s">
+      <c r="A6" s="963" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="819" t="s">
+      <c r="B6" s="964" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="820" t="s">
+      <c r="C6" s="965" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="821" t="s">
+      <c r="A7" s="966" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="822" t="s">
+      <c r="B7" s="967" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="823" t="s">
+      <c r="C7" s="968" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="824" t="s">
+      <c r="A8" s="969" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="825" t="s">
+      <c r="B8" s="970" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="826" t="s">
+      <c r="C8" s="971" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="827" t="s">
+      <c r="A9" s="972" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="828" t="s">
+      <c r="B9" s="973" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="829" t="s">
+      <c r="C9" s="974" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="830" t="s">
+      <c r="A10" s="975" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="831" t="s">
+      <c r="B10" s="976" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="832" t="s">
+      <c r="C10" s="977" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="833" t="s">
+      <c r="A11" s="978" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="834" t="s">
+      <c r="B11" s="979" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="835" t="s">
+      <c r="C11" s="980" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="836" t="s">
+      <c r="A12" s="981" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="837" t="s">
+      <c r="B12" s="982" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="838" t="s">
+      <c r="C12" s="983" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="839" t="s">
+      <c r="A13" s="984" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="840" t="s">
+      <c r="B13" s="985" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="841" t="s">
+      <c r="C13" s="986" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="842" t="s">
+      <c r="A14" s="987" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="843" t="s">
+      <c r="B14" s="988" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="844" t="s">
+      <c r="C14" s="989" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="845" t="s">
+      <c r="A15" s="990" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="846" t="s">
+      <c r="B15" s="991" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="847" t="s">
+      <c r="C15" s="992" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="860" t="s">
+      <c r="A16" s="1005" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="861" t="s">
+      <c r="B16" s="1006" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="862" t="s">
+      <c r="C16" s="1007" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="863" t="s">
+      <c r="A17" s="1008" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="864" t="s">
+      <c r="B17" s="1009" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="865" t="s">
+      <c r="C17" s="1010" t="s">
         <v>121</v>
       </c>
     </row>

--- a/data/cuadros/Intermediación Financiera, Actividades Inmobiliarias, Empresariales y de Alquiler/bh.xlsx
+++ b/data/cuadros/Intermediación Financiera, Actividades Inmobiliarias, Empresariales y de Alquiler/bh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="133">
   <si>
     <t>Participación del empleo del sector en la región</t>
   </si>
@@ -384,12 +384,42 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>21,0</t>
+  </si>
+  <si>
+    <t>5,8</t>
+  </si>
+  <si>
+    <t>7,1</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1370">
+  <fonts count="1760">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -5881,8 +5911,1570 @@
       <b/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="443">
+  <fills count="569">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8094,8 +9686,638 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1018">
+  <borders count="1308">
     <border>
       <left/>
       <right/>
@@ -15432,11 +17654,2101 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1018">
+  <cellXfs count="1308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -19503,6 +23815,1166 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1369" fillId="0" borderId="1017" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1370" fillId="0" borderId="1018" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1371" fillId="0" borderId="1019" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1372" fillId="0" borderId="1020" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1373" fillId="0" borderId="1021" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1374" fillId="0" borderId="1022" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1375" fillId="0" borderId="1023" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1376" fillId="0" borderId="1024" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1377" fillId="0" borderId="1025" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1378" fillId="0" borderId="1026" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1379" fillId="0" borderId="1027" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1380" fillId="0" borderId="1028" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1381" fillId="0" borderId="1029" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1382" fillId="0" borderId="1030" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1383" fillId="0" borderId="1031" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1384" fillId="0" borderId="1032" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1385" fillId="0" borderId="1033" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1386" fillId="0" borderId="1034" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1387" fillId="0" borderId="1035" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1388" fillId="0" borderId="1036" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1389" fillId="0" borderId="1037" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1390" fillId="0" borderId="1038" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1391" fillId="0" borderId="1039" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1392" fillId="0" borderId="1040" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1393" fillId="0" borderId="1041" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1394" fillId="0" borderId="1042" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1395" fillId="0" borderId="1043" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1396" fillId="0" borderId="1044" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1397" fillId="0" borderId="1045" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1398" fillId="0" borderId="1046" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1399" fillId="0" borderId="1047" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1400" fillId="0" borderId="1048" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1401" fillId="0" borderId="1049" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1403" fillId="0" borderId="1050" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1405" fillId="0" borderId="1051" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1407" fillId="0" borderId="1052" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1409" fillId="0" borderId="1053" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1411" fillId="0" borderId="1054" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1413" fillId="0" borderId="1055" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1415" fillId="0" borderId="1056" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1417" fillId="0" borderId="1057" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1419" fillId="0" borderId="1058" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1421" fillId="0" borderId="1059" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1423" fillId="0" borderId="1060" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1425" fillId="0" borderId="1061" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1427" fillId="0" borderId="1062" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1429" fillId="0" borderId="1063" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1431" fillId="0" borderId="1064" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1433" fillId="0" borderId="1065" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1435" fillId="0" borderId="1066" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1437" fillId="0" borderId="1067" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1439" fillId="0" borderId="1068" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1441" fillId="0" borderId="1069" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1443" fillId="0" borderId="1070" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1445" fillId="0" borderId="1071" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1447" fillId="0" borderId="1072" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1449" fillId="0" borderId="1073" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1451" fillId="0" borderId="1074" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1453" fillId="0" borderId="1075" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1455" fillId="0" borderId="1076" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1457" fillId="0" borderId="1077" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1459" fillId="0" borderId="1078" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1461" fillId="0" borderId="1079" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1463" fillId="0" borderId="1080" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1465" fillId="0" borderId="1081" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1467" fillId="0" borderId="1082" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1469" fillId="0" borderId="1083" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1471" fillId="0" borderId="1084" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1473" fillId="0" borderId="1085" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1475" fillId="0" borderId="1086" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1477" fillId="0" borderId="1087" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1479" fillId="0" borderId="1088" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1481" fillId="0" borderId="1089" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1483" fillId="0" borderId="1090" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1485" fillId="0" borderId="1091" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1487" fillId="0" borderId="1092" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1489" fillId="0" borderId="1093" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1491" fillId="0" borderId="1094" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1493" fillId="0" borderId="1095" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1495" fillId="0" borderId="1096" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1497" fillId="0" borderId="1097" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1498" fillId="443" borderId="1098" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1499" fillId="444" borderId="1099" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1500" fillId="445" borderId="1100" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1501" fillId="446" borderId="1101" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1502" fillId="447" borderId="1102" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1503" fillId="448" borderId="1103" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1504" fillId="449" borderId="1104" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1505" fillId="450" borderId="1105" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1506" fillId="451" borderId="1106" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1507" fillId="452" borderId="1107" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1508" fillId="453" borderId="1108" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1509" fillId="454" borderId="1109" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1510" fillId="455" borderId="1110" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1511" fillId="456" borderId="1111" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1512" fillId="457" borderId="1112" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1513" fillId="458" borderId="1113" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1514" fillId="459" borderId="1114" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1515" fillId="460" borderId="1115" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1516" fillId="461" borderId="1116" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1517" fillId="462" borderId="1117" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1518" fillId="463" borderId="1118" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1519" fillId="464" borderId="1119" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1520" fillId="465" borderId="1120" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1521" fillId="466" borderId="1121" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1522" fillId="467" borderId="1122" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1523" fillId="468" borderId="1123" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1524" fillId="469" borderId="1124" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1525" fillId="470" borderId="1125" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1526" fillId="471" borderId="1126" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1527" fillId="472" borderId="1127" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1528" fillId="473" borderId="1128" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1529" fillId="474" borderId="1129" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1530" fillId="475" borderId="1130" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1531" fillId="476" borderId="1131" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1532" fillId="477" borderId="1132" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1533" fillId="478" borderId="1133" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1534" fillId="479" borderId="1134" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1535" fillId="480" borderId="1135" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1536" fillId="481" borderId="1136" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1537" fillId="482" borderId="1137" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1538" fillId="483" borderId="1138" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1539" fillId="484" borderId="1139" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1540" fillId="485" borderId="1140" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1541" fillId="486" borderId="1141" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1542" fillId="487" borderId="1142" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1543" fillId="488" borderId="1143" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1544" fillId="489" borderId="1144" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1545" fillId="490" borderId="1145" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1546" fillId="491" borderId="1146" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1547" fillId="492" borderId="1147" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1548" fillId="493" borderId="1148" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1549" fillId="494" borderId="1149" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1550" fillId="495" borderId="1150" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1551" fillId="496" borderId="1151" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1552" fillId="497" borderId="1152" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1553" fillId="498" borderId="1153" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1554" fillId="499" borderId="1154" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1555" fillId="500" borderId="1155" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1556" fillId="501" borderId="1156" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1557" fillId="502" borderId="1157" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1558" fillId="503" borderId="1158" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1559" fillId="504" borderId="1159" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1560" fillId="505" borderId="1160" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1562" fillId="0" borderId="1161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1564" fillId="0" borderId="1162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1565" fillId="0" borderId="1163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1566" fillId="0" borderId="1164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1567" fillId="0" borderId="1165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1568" fillId="0" borderId="1166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1569" fillId="0" borderId="1167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1570" fillId="0" borderId="1168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1571" fillId="0" borderId="1169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1572" fillId="0" borderId="1170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1573" fillId="0" borderId="1171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1574" fillId="0" borderId="1172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1575" fillId="0" borderId="1173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1576" fillId="0" borderId="1174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1577" fillId="0" borderId="1175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1578" fillId="0" borderId="1176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1579" fillId="0" borderId="1177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1580" fillId="0" borderId="1178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1581" fillId="0" borderId="1179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1582" fillId="0" borderId="1180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1583" fillId="0" borderId="1181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1584" fillId="0" borderId="1182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1585" fillId="0" borderId="1183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1586" fillId="0" borderId="1184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1587" fillId="0" borderId="1185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1588" fillId="0" borderId="1186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1589" fillId="0" borderId="1187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1590" fillId="0" borderId="1188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1591" fillId="0" borderId="1189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1592" fillId="0" borderId="1190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1593" fillId="0" borderId="1191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1594" fillId="0" borderId="1192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1595" fillId="0" borderId="1193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1596" fillId="0" borderId="1194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1598" fillId="0" borderId="1195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1600" fillId="0" borderId="1196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1602" fillId="0" borderId="1197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1604" fillId="0" borderId="1198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1606" fillId="0" borderId="1199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1608" fillId="0" borderId="1200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1610" fillId="0" borderId="1201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1612" fillId="0" borderId="1202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1614" fillId="0" borderId="1203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1616" fillId="0" borderId="1204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1618" fillId="0" borderId="1205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1620" fillId="0" borderId="1206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1622" fillId="0" borderId="1207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1624" fillId="0" borderId="1208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1626" fillId="0" borderId="1209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1628" fillId="0" borderId="1210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1630" fillId="0" borderId="1211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1632" fillId="0" borderId="1212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1634" fillId="0" borderId="1213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1636" fillId="0" borderId="1214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1638" fillId="0" borderId="1215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1640" fillId="0" borderId="1216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1642" fillId="0" borderId="1217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1644" fillId="0" borderId="1218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1646" fillId="0" borderId="1219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1648" fillId="0" borderId="1220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1650" fillId="0" borderId="1221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1652" fillId="0" borderId="1222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1654" fillId="0" borderId="1223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1656" fillId="0" borderId="1224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1658" fillId="0" borderId="1225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1660" fillId="0" borderId="1226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1662" fillId="0" borderId="1227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1664" fillId="0" borderId="1228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1666" fillId="0" borderId="1229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1668" fillId="0" borderId="1230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1670" fillId="0" borderId="1231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1672" fillId="0" borderId="1232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1674" fillId="0" borderId="1233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1676" fillId="0" borderId="1234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1678" fillId="0" borderId="1235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1680" fillId="0" borderId="1236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1682" fillId="0" borderId="1237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1684" fillId="0" borderId="1238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1686" fillId="0" borderId="1239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1688" fillId="0" borderId="1240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1690" fillId="0" borderId="1241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1692" fillId="0" borderId="1242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1693" fillId="506" borderId="1243" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1694" fillId="507" borderId="1244" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1695" fillId="508" borderId="1245" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1696" fillId="509" borderId="1246" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1697" fillId="510" borderId="1247" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1698" fillId="511" borderId="1248" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1699" fillId="512" borderId="1249" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1700" fillId="513" borderId="1250" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1701" fillId="514" borderId="1251" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1702" fillId="515" borderId="1252" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1703" fillId="516" borderId="1253" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1704" fillId="517" borderId="1254" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1705" fillId="518" borderId="1255" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1706" fillId="519" borderId="1256" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1707" fillId="520" borderId="1257" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1708" fillId="521" borderId="1258" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1709" fillId="522" borderId="1259" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1710" fillId="523" borderId="1260" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1711" fillId="524" borderId="1261" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1712" fillId="525" borderId="1262" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1713" fillId="526" borderId="1263" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1714" fillId="527" borderId="1264" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1715" fillId="528" borderId="1265" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1716" fillId="529" borderId="1266" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1717" fillId="530" borderId="1267" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1718" fillId="531" borderId="1268" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1719" fillId="532" borderId="1269" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1720" fillId="533" borderId="1270" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1721" fillId="534" borderId="1271" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1722" fillId="535" borderId="1272" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1723" fillId="536" borderId="1273" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1724" fillId="537" borderId="1274" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1725" fillId="538" borderId="1275" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1726" fillId="539" borderId="1276" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1727" fillId="540" borderId="1277" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1728" fillId="541" borderId="1278" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1729" fillId="542" borderId="1279" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1730" fillId="543" borderId="1280" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1731" fillId="544" borderId="1281" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1732" fillId="545" borderId="1282" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1733" fillId="546" borderId="1283" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1734" fillId="547" borderId="1284" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1735" fillId="548" borderId="1285" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1736" fillId="549" borderId="1286" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1737" fillId="550" borderId="1287" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1738" fillId="551" borderId="1288" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1739" fillId="552" borderId="1289" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1740" fillId="553" borderId="1290" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1741" fillId="554" borderId="1291" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1742" fillId="555" borderId="1292" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1743" fillId="556" borderId="1293" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1744" fillId="557" borderId="1294" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1745" fillId="558" borderId="1295" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1746" fillId="559" borderId="1296" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1747" fillId="560" borderId="1297" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1748" fillId="561" borderId="1298" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1749" fillId="562" borderId="1299" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1750" fillId="563" borderId="1300" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1751" fillId="564" borderId="1301" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1752" fillId="565" borderId="1302" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1753" fillId="566" borderId="1303" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1754" fillId="567" borderId="1304" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1755" fillId="568" borderId="1305" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1757" fillId="0" borderId="1306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1759" fillId="0" borderId="1307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19519,183 +24991,183 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1017" t="s">
+      <c r="A1" s="1307" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1011" t="s">
+      <c r="A2" s="1303" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1012" t="s">
+      <c r="B2" s="1304" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1013" t="s">
+      <c r="C2" s="1305" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="954" t="s">
+      <c r="A3" s="1246" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="955" t="s">
-        <v>94</v>
+      <c r="B3" s="1247" t="s">
+        <v>19</v>
       </c>
-      <c r="C3" s="956" t="s">
+      <c r="C3" s="1248" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="957" t="s">
+      <c r="A4" s="1249" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="958" t="s">
-        <v>95</v>
+      <c r="B4" s="1250" t="s">
+        <v>123</v>
       </c>
-      <c r="C4" s="959" t="s">
+      <c r="C4" s="1251" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="960" t="s">
+      <c r="A5" s="1252" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="961" t="s">
-        <v>96</v>
+      <c r="B5" s="1253" t="s">
+        <v>124</v>
       </c>
-      <c r="C5" s="962" t="s">
+      <c r="C5" s="1254" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="963" t="s">
+      <c r="A6" s="1255" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="964" t="s">
-        <v>97</v>
+      <c r="B6" s="1256" t="s">
+        <v>125</v>
       </c>
-      <c r="C6" s="965" t="s">
+      <c r="C6" s="1257" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="966" t="s">
+      <c r="A7" s="1258" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="967" t="s">
-        <v>98</v>
+      <c r="B7" s="1259" t="s">
+        <v>126</v>
       </c>
-      <c r="C7" s="968" t="s">
+      <c r="C7" s="1260" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="969" t="s">
+      <c r="A8" s="1261" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="970" t="s">
-        <v>99</v>
+      <c r="B8" s="1262" t="s">
+        <v>127</v>
       </c>
-      <c r="C8" s="971" t="s">
+      <c r="C8" s="1263" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="972" t="s">
+      <c r="A9" s="1264" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="973" t="s">
-        <v>100</v>
+      <c r="B9" s="1265" t="s">
+        <v>128</v>
       </c>
-      <c r="C9" s="974" t="s">
+      <c r="C9" s="1266" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="975" t="s">
+      <c r="A10" s="1267" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="976" t="s">
-        <v>101</v>
+      <c r="B10" s="1268" t="s">
+        <v>129</v>
       </c>
-      <c r="C10" s="977" t="s">
+      <c r="C10" s="1269" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="978" t="s">
+      <c r="A11" s="1270" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="979" t="s">
-        <v>102</v>
+      <c r="B11" s="1271" t="s">
+        <v>22</v>
       </c>
-      <c r="C11" s="980" t="s">
+      <c r="C11" s="1272" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="981" t="s">
+      <c r="A12" s="1273" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="982" t="s">
-        <v>103</v>
+      <c r="B12" s="1274" t="s">
+        <v>130</v>
       </c>
-      <c r="C12" s="983" t="s">
+      <c r="C12" s="1275" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="984" t="s">
+      <c r="A13" s="1276" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="985" t="s">
-        <v>104</v>
+      <c r="B13" s="1277" t="s">
+        <v>131</v>
       </c>
-      <c r="C13" s="986" t="s">
+      <c r="C13" s="1278" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="987" t="s">
+      <c r="A14" s="1279" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="988" t="s">
-        <v>105</v>
+      <c r="B14" s="1280" t="s">
+        <v>129</v>
       </c>
-      <c r="C14" s="989" t="s">
+      <c r="C14" s="1281" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="990" t="s">
+      <c r="A15" s="1282" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="991" t="s">
-        <v>106</v>
+      <c r="B15" s="1283" t="s">
+        <v>132</v>
       </c>
-      <c r="C15" s="992" t="s">
+      <c r="C15" s="1284" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1005" t="s">
+      <c r="A16" s="1297" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1006" t="s">
-        <v>107</v>
+      <c r="B16" s="1298" t="s">
+        <v>123</v>
       </c>
-      <c r="C16" s="1007" t="s">
+      <c r="C16" s="1299" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1008" t="s">
+      <c r="A17" s="1300" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1009" t="s">
-        <v>108</v>
+      <c r="B17" s="1301" t="s">
+        <v>20</v>
       </c>
-      <c r="C17" s="1010" t="s">
+      <c r="C17" s="1302" t="s">
         <v>121</v>
       </c>
     </row>
